--- a/FileTemplate/ImportProductTemplate.xlsx
+++ b/FileTemplate/ImportProductTemplate.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chirapong\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chirapong\Desktop\react\angular\StockAPI\FileTemplate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC65777F-351D-4AFE-8580-B1383C3B8CFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D79E1521-74B3-40C4-B0AB-703555A07B1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{013CD721-C81B-4F72-A9A0-3CE90D3D3C0F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{013CD721-C81B-4F72-A9A0-3CE90D3D3C0F}"/>
   </bookViews>
   <sheets>
     <sheet name="ImportProduct" sheetId="1" r:id="rId1"/>
@@ -56,7 +56,7 @@
     <t>status</t>
   </si>
   <si>
-    <t>ตัวอย่าง *กรุณาลบแถวนี้ก่อนนำเข้า</t>
+    <t>ตัวอย่าง *กรุณาลบแถวนี้ก่อนนำเข้า  status 1 คือเปิดใช้งาน 0 คือปิดใช้งาน</t>
   </si>
 </sst>
 </file>
@@ -445,7 +445,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -455,7 +455,7 @@
     <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.5703125" customWidth="1"/>
+    <col min="6" max="6" width="64.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">

--- a/FileTemplate/ImportProductTemplate.xlsx
+++ b/FileTemplate/ImportProductTemplate.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chirapong\Desktop\react\angular\StockAPI\FileTemplate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D79E1521-74B3-40C4-B0AB-703555A07B1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FD8A5AF-16C8-4C9C-8662-A0A3D8FAAF0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{013CD721-C81B-4F72-A9A0-3CE90D3D3C0F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>barcode</t>
   </si>
@@ -57,6 +57,12 @@
   </si>
   <si>
     <t>ตัวอย่าง *กรุณาลบแถวนี้ก่อนนำเข้า  status 1 คือเปิดใช้งาน 0 คือปิดใช้งาน</t>
+  </si>
+  <si>
+    <t>12345667892</t>
+  </si>
+  <si>
+    <t>1234</t>
   </si>
 </sst>
 </file>
@@ -105,9 +111,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -445,7 +453,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -459,10 +467,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -476,11 +484,11 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>12345667892</v>
-      </c>
-      <c r="B2">
-        <v>1234</v>
+      <c r="A2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
